--- a/modified_tables/table_16.xlsx
+++ b/modified_tables/table_16.xlsx
@@ -14,21 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>1,177,951</t>
-  </si>
-  <si>
-    <t>537,721</t>
-  </si>
-  <si>
-    <t>45,722</t>
-  </si>
-  <si>
-    <t>2,103,706</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Of which: male</t>
+  </si>
+  <si>
+    <t>Of which: female</t>
+  </si>
+  <si>
+    <t>By age and gender</t>
+  </si>
+  <si>
+    <t>age 29 or under</t>
+  </si>
+  <si>
+    <t>30 to 49</t>
+  </si>
+  <si>
+    <t>50+</t>
   </si>
 </sst>
 </file>
@@ -386,33 +392,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="1"/>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B2">
+        <v>186</v>
+      </c>
+      <c r="C2">
+        <v>101</v>
+      </c>
+      <c r="D2">
+        <v>85</v>
+      </c>
+      <c r="F2">
+        <v>57</v>
+      </c>
+      <c r="G2">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <v>26</v>
+      </c>
+      <c r="I2">
+        <v>144</v>
+      </c>
+      <c r="J2">
+        <v>97</v>
+      </c>
+      <c r="K2">
+        <v>47</v>
+      </c>
+      <c r="L2">
+        <v>35</v>
+      </c>
+      <c r="M2">
+        <v>23</v>
+      </c>
+      <c r="N2">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B3">
+        <v>196</v>
+      </c>
+      <c r="C3">
+        <v>122</v>
+      </c>
+      <c r="D3">
+        <v>74</v>
+      </c>
+      <c r="F3">
+        <v>43</v>
+      </c>
+      <c r="G3">
+        <v>24</v>
+      </c>
+      <c r="H3">
+        <v>19</v>
+      </c>
+      <c r="I3">
+        <v>134</v>
+      </c>
+      <c r="J3">
+        <v>89</v>
+      </c>
+      <c r="K3">
+        <v>45</v>
+      </c>
+      <c r="L3">
+        <v>19</v>
+      </c>
+      <c r="M3">
+        <v>9</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
